--- a/Data/Trebac Playback Data_February 2022.xlsx
+++ b/Data/Trebac Playback Data_February 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/ctrebac2_unl_edu/Documents/THESIS/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshizuka/Documents/GitHub/WBNU-playback/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{C35E4D01-DDB3-FB41-8189-F74ACE2A3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5EF5839-D4B5-5B49-9E2B-0CB3C5914CD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D075E-6506-3E45-A65F-D7A4084F1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E46A0118-D2E5-344D-AD4F-2B4CAF912567}"/>
+    <workbookView xWindow="5300" yWindow="1460" windowWidth="28800" windowHeight="16480" xr2:uid="{E46A0118-D2E5-344D-AD4F-2B4CAF912567}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
